--- a/Apitest/OUTPUT/otherLangageMails.xlsx
+++ b/Apitest/OUTPUT/otherLangageMails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\OneDrive\Documents\UiPath\BulkQueueError\Apitest\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB000968-E27B-4CF7-B77E-3F16D2D225D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49785062-56B4-4865-82EB-0DBE99A66333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="1815" windowWidth="18000" windowHeight="9810" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
